--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2020-12-26</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -185,6 +188,12 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -545,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -603,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0.62</v>
@@ -620,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>137.29</v>
@@ -632,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -640,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>133.57</v>
@@ -652,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -660,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>129.29</v>
@@ -672,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>96.29000000000001</v>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>88.43000000000001</v>
@@ -712,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>72.29000000000001</v>
@@ -732,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>61.86</v>
@@ -752,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>49.71</v>
@@ -772,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>60.29</v>
@@ -792,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>53.57</v>
@@ -812,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -820,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>67.86</v>
@@ -832,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -840,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>74.43000000000001</v>
@@ -852,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -872,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -880,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>122.43</v>
@@ -892,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -900,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>149.14</v>
@@ -912,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -920,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>175.29</v>
@@ -932,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -940,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>192</v>
@@ -952,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -960,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>215</v>
@@ -972,7 +981,7 @@
         <v>127.67</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -980,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>214</v>
@@ -992,7 +1001,7 @@
         <v>121.89</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1000,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>183.14</v>
@@ -1012,7 +1021,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1020,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>175.43</v>
@@ -1032,7 +1041,7 @@
         <v>47.64</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1040,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>144.29</v>
@@ -1052,7 +1061,7 @@
         <v>25.86</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1060,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>122.43</v>
@@ -1072,7 +1081,7 @@
         <v>64.05</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1080,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>113.57</v>
@@ -1092,7 +1101,7 @@
         <v>66.44</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1100,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1112,7 +1121,7 @@
         <v>50.14</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1120,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>155.57</v>
@@ -1132,7 +1141,7 @@
         <v>9.25</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1140,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>182.29</v>
@@ -1152,7 +1161,7 @@
         <v>17.04</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1160,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>193.14</v>
@@ -1172,7 +1181,7 @@
         <v>99.52</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1180,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>221</v>
@@ -1192,7 +1201,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1200,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>261.43</v>
@@ -1212,7 +1221,7 @@
         <v>120.91</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1220,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>313.86</v>
@@ -1232,7 +1241,7 @@
         <v>155.41</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1240,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>363.43</v>
@@ -1252,7 +1261,7 @@
         <v>216.52</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1260,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>424</v>
@@ -1272,7 +1281,7 @@
         <v>272.63</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1280,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>457.43</v>
@@ -1292,7 +1301,7 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1300,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>470.43</v>
@@ -1312,7 +1321,7 @@
         <v>287.48</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1320,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>451.29</v>
@@ -1332,7 +1341,7 @@
         <v>244.02</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1340,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>361.43</v>
@@ -1352,7 +1361,7 @@
         <v>135.08</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1360,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>276.14</v>
@@ -1372,7 +1381,7 @@
         <v>17.36</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1380,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>214.14</v>
@@ -1392,7 +1401,7 @@
         <v>85.34999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1400,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>160.86</v>
@@ -1412,7 +1421,7 @@
         <v>163.69</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1420,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>123.43</v>
@@ -1432,7 +1441,7 @@
         <v>146.96</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J43">
         <v>146.96</v>
@@ -1446,13 +1455,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>94.56999999999999</v>
       </c>
       <c r="D44">
         <v>275.88</v>
       </c>
+      <c r="E44">
+        <v>181.31</v>
+      </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <v>164.13</v>
+      </c>
+      <c r="K44">
+        <v>155.39</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1460,13 +1481,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>267.8</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1474,13 +1495,78 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>265.91</v>
       </c>
       <c r="F46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>259.59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47">
+        <v>0.43</v>
+      </c>
+      <c r="H47">
+        <v>169.81</v>
+      </c>
+      <c r="I47">
+        <v>160.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
         <v>57</v>
+      </c>
+      <c r="D48">
+        <v>243.71</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>229.97</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50">
+        <v>190.08</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>2021-01-09</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -612,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0.62</v>
@@ -629,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>137.29</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>133.57</v>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>129.29</v>
@@ -681,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>96.29000000000001</v>
@@ -701,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>88.43000000000001</v>
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>72.29000000000001</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>61.86</v>
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>49.71</v>
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>60.29</v>
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>53.57</v>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>67.86</v>
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>74.43000000000001</v>
@@ -861,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -881,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>122.43</v>
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>149.14</v>
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>175.29</v>
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>192</v>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>215</v>
@@ -981,7 +984,7 @@
         <v>127.67</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>214</v>
@@ -1001,7 +1004,7 @@
         <v>121.89</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>183.14</v>
@@ -1021,7 +1024,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>175.43</v>
@@ -1041,7 +1044,7 @@
         <v>47.64</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>144.29</v>
@@ -1061,7 +1064,7 @@
         <v>25.86</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>122.43</v>
@@ -1081,7 +1084,7 @@
         <v>64.05</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>113.57</v>
@@ -1101,7 +1104,7 @@
         <v>66.44</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1121,7 +1124,7 @@
         <v>50.14</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>155.57</v>
@@ -1141,7 +1144,7 @@
         <v>9.25</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>182.29</v>
@@ -1161,7 +1164,7 @@
         <v>17.04</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>193.14</v>
@@ -1181,7 +1184,7 @@
         <v>99.52</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>221</v>
@@ -1201,7 +1204,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>261.43</v>
@@ -1221,7 +1224,7 @@
         <v>120.91</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>313.86</v>
@@ -1241,7 +1244,7 @@
         <v>155.41</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>363.43</v>
@@ -1261,7 +1264,7 @@
         <v>216.52</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>424</v>
@@ -1281,7 +1284,7 @@
         <v>272.63</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>457.43</v>
@@ -1301,7 +1304,7 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>470.43</v>
@@ -1321,7 +1324,7 @@
         <v>287.48</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>451.29</v>
@@ -1341,7 +1344,7 @@
         <v>244.02</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>361.43</v>
@@ -1361,7 +1364,7 @@
         <v>135.08</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>276.14</v>
@@ -1381,7 +1384,7 @@
         <v>17.36</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>214.14</v>
@@ -1401,7 +1404,7 @@
         <v>85.34999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>160.86</v>
@@ -1421,7 +1424,7 @@
         <v>163.69</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>123.43</v>
@@ -1441,7 +1444,7 @@
         <v>146.96</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J43">
         <v>146.96</v>
@@ -1455,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>94.56999999999999</v>
@@ -1467,7 +1470,7 @@
         <v>181.31</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J44">
         <v>164.13</v>
@@ -1481,13 +1484,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>267.8</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1495,13 +1498,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>265.91</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1511,20 +1514,32 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
+      <c r="C47">
+        <v>94.56999999999999</v>
+      </c>
       <c r="D47">
-        <v>259.59</v>
+        <v>343.5</v>
+      </c>
+      <c r="E47">
+        <v>248.93</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47">
-        <v>0.43</v>
+        <v>0.66</v>
       </c>
       <c r="H47">
-        <v>169.81</v>
+        <v>179.69</v>
       </c>
       <c r="I47">
-        <v>160.59</v>
+        <v>221.79</v>
+      </c>
+      <c r="J47">
+        <v>192.4</v>
+      </c>
+      <c r="K47">
+        <v>191.33</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1535,13 +1550,13 @@
         <v>57</v>
       </c>
       <c r="D48">
-        <v>243.71</v>
+        <v>331.74</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1549,13 +1564,13 @@
         <v>58</v>
       </c>
       <c r="D49">
-        <v>229.97</v>
+        <v>321.16</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1563,10 +1578,75 @@
         <v>59</v>
       </c>
       <c r="D50">
+        <v>319.23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>259.59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51">
+        <v>0.43</v>
+      </c>
+      <c r="H51">
+        <v>169.81</v>
+      </c>
+      <c r="I51">
+        <v>160.59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>243.71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53">
+        <v>229.97</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54">
         <v>190.08</v>
       </c>
-      <c r="F50" t="s">
-        <v>60</v>
+      <c r="F54" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.62</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>137.29</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>133.57</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>129.29</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>96.29000000000001</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>88.43000000000001</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>72.29000000000001</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>61.86</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>49.71</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>60.29</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>53.57</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>67.86</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>74.43000000000001</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>122.43</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>149.14</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>175.29</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>192</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>215</v>
@@ -984,7 +990,7 @@
         <v>127.67</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>214</v>
@@ -1004,7 +1010,7 @@
         <v>121.89</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>183.14</v>
@@ -1024,7 +1030,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>175.43</v>
@@ -1044,7 +1050,7 @@
         <v>47.64</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>144.29</v>
@@ -1064,7 +1070,7 @@
         <v>25.86</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>122.43</v>
@@ -1084,7 +1090,7 @@
         <v>64.05</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>113.57</v>
@@ -1104,7 +1110,7 @@
         <v>66.44</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1124,7 +1130,7 @@
         <v>50.14</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>155.57</v>
@@ -1144,7 +1150,7 @@
         <v>9.25</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>182.29</v>
@@ -1164,7 +1170,7 @@
         <v>17.04</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>193.14</v>
@@ -1184,7 +1190,7 @@
         <v>99.52</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>221</v>
@@ -1204,7 +1210,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>261.43</v>
@@ -1224,7 +1230,7 @@
         <v>120.91</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>313.86</v>
@@ -1244,7 +1250,7 @@
         <v>155.41</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>363.43</v>
@@ -1264,7 +1270,7 @@
         <v>216.52</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>424</v>
@@ -1284,7 +1290,7 @@
         <v>272.63</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>457.43</v>
@@ -1304,7 +1310,7 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>470.43</v>
@@ -1324,7 +1330,7 @@
         <v>287.48</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1332,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>451.29</v>
@@ -1344,7 +1350,7 @@
         <v>244.02</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1352,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>361.43</v>
@@ -1364,7 +1370,7 @@
         <v>135.08</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1372,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>276.14</v>
@@ -1384,7 +1390,7 @@
         <v>17.36</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1392,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>214.14</v>
@@ -1404,7 +1410,7 @@
         <v>85.34999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1412,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>160.86</v>
@@ -1424,7 +1430,7 @@
         <v>163.69</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1432,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>123.43</v>
@@ -1444,7 +1450,7 @@
         <v>146.96</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J43">
         <v>146.96</v>
@@ -1458,7 +1464,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>94.56999999999999</v>
@@ -1470,7 +1476,7 @@
         <v>181.31</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J44">
         <v>164.13</v>
@@ -1484,13 +1490,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>88.14</v>
       </c>
       <c r="D45">
         <v>267.8</v>
       </c>
+      <c r="E45">
+        <v>179.66</v>
+      </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J45">
+        <v>169.31</v>
+      </c>
+      <c r="K45">
+        <v>171.53</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1498,13 +1516,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>265.91</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1512,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>94.56999999999999</v>
@@ -1524,7 +1542,7 @@
         <v>248.93</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G47">
         <v>0.66</v>
@@ -1536,10 +1554,10 @@
         <v>221.79</v>
       </c>
       <c r="J47">
-        <v>192.4</v>
+        <v>189.21</v>
       </c>
       <c r="K47">
-        <v>191.33</v>
+        <v>194.45</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1547,55 +1565,73 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>88.14</v>
       </c>
       <c r="D48">
         <v>331.74</v>
       </c>
+      <c r="E48">
+        <v>243.6</v>
+      </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J48">
+        <v>200.09</v>
+      </c>
+      <c r="K48">
+        <v>210.84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>321.16</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>319.23</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>88.14</v>
       </c>
       <c r="D51">
         <v>259.59</v>
       </c>
+      <c r="E51">
+        <v>171.45</v>
+      </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>0.43</v>
@@ -1606,47 +1642,118 @@
       <c r="I51">
         <v>160.59</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>195.32</v>
+      </c>
+      <c r="K51">
+        <v>208.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>243.71</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>229.97</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54">
         <v>190.08</v>
       </c>
       <c r="F54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>243.71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55">
+        <v>0.46</v>
+      </c>
+      <c r="H55">
+        <v>190.33</v>
+      </c>
+      <c r="I55">
+        <v>167.76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56">
+        <v>229.97</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
         <v>61</v>
+      </c>
+      <c r="D57">
+        <v>190.08</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58">
+        <v>158.67</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -621,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.62</v>
@@ -638,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>137.29</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>133.57</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>129.29</v>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>96.29000000000001</v>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>88.43000000000001</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>72.29000000000001</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>61.86</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>49.71</v>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>60.29</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>53.57</v>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>67.86</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>74.43000000000001</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>122.43</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>149.14</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>175.29</v>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>192</v>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>215</v>
@@ -990,7 +996,7 @@
         <v>127.67</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>214</v>
@@ -1010,7 +1016,7 @@
         <v>121.89</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>183.14</v>
@@ -1030,7 +1036,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>175.43</v>
@@ -1050,7 +1056,7 @@
         <v>47.64</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>144.29</v>
@@ -1070,7 +1076,7 @@
         <v>25.86</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>122.43</v>
@@ -1090,7 +1096,7 @@
         <v>64.05</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>113.57</v>
@@ -1110,7 +1116,7 @@
         <v>66.44</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1130,7 +1136,7 @@
         <v>50.14</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>155.57</v>
@@ -1150,7 +1156,7 @@
         <v>9.25</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>182.29</v>
@@ -1170,7 +1176,7 @@
         <v>17.04</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>193.14</v>
@@ -1190,7 +1196,7 @@
         <v>99.52</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>221</v>
@@ -1210,7 +1216,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>261.43</v>
@@ -1230,7 +1236,7 @@
         <v>120.91</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>313.86</v>
@@ -1250,7 +1256,7 @@
         <v>155.41</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>363.43</v>
@@ -1270,7 +1276,7 @@
         <v>216.52</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>424</v>
@@ -1290,7 +1296,7 @@
         <v>272.63</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>457.43</v>
@@ -1310,7 +1316,7 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>470.43</v>
@@ -1330,7 +1336,7 @@
         <v>287.48</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>451.29</v>
@@ -1350,7 +1356,7 @@
         <v>244.02</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>361.43</v>
@@ -1370,7 +1376,7 @@
         <v>135.08</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>276.14</v>
@@ -1390,7 +1396,7 @@
         <v>17.36</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>214.14</v>
@@ -1410,7 +1416,7 @@
         <v>85.34999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1418,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>160.86</v>
@@ -1430,7 +1436,7 @@
         <v>163.69</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1438,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>123.43</v>
@@ -1450,7 +1456,7 @@
         <v>146.96</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>146.96</v>
@@ -1464,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>94.56999999999999</v>
@@ -1476,7 +1482,7 @@
         <v>181.31</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J44">
         <v>164.13</v>
@@ -1490,7 +1496,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>88.14</v>
@@ -1502,7 +1508,7 @@
         <v>179.66</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J45">
         <v>169.31</v>
@@ -1516,13 +1522,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>82.43000000000001</v>
       </c>
       <c r="D46">
         <v>265.91</v>
       </c>
+      <c r="E46">
+        <v>183.48</v>
+      </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J46">
+        <v>172.85</v>
+      </c>
+      <c r="K46">
+        <v>184.3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1530,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>94.56999999999999</v>
@@ -1542,7 +1560,7 @@
         <v>248.93</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G47">
         <v>0.66</v>
@@ -1554,10 +1572,10 @@
         <v>221.79</v>
       </c>
       <c r="J47">
-        <v>189.21</v>
+        <v>188.07</v>
       </c>
       <c r="K47">
-        <v>194.45</v>
+        <v>200.08</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1565,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>88.14</v>
@@ -1577,13 +1595,13 @@
         <v>243.6</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J48">
-        <v>200.09</v>
+        <v>197.32</v>
       </c>
       <c r="K48">
-        <v>210.84</v>
+        <v>212.8</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1591,13 +1609,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>82.43000000000001</v>
       </c>
       <c r="D49">
         <v>321.16</v>
       </c>
+      <c r="E49">
+        <v>238.73</v>
+      </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J49">
+        <v>203.24</v>
+      </c>
+      <c r="K49">
+        <v>223.77</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1605,13 +1635,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50">
         <v>319.23</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1619,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1631,7 +1661,7 @@
         <v>171.45</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G51">
         <v>0.43</v>
@@ -1643,10 +1673,10 @@
         <v>160.59</v>
       </c>
       <c r="J51">
-        <v>195.32</v>
+        <v>199.26</v>
       </c>
       <c r="K51">
-        <v>208.12</v>
+        <v>220.11</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1654,13 +1684,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>82.43000000000001</v>
       </c>
       <c r="D52">
         <v>243.71</v>
       </c>
+      <c r="E52">
+        <v>161.29</v>
+      </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="J52">
+        <v>195.04</v>
+      </c>
+      <c r="K52">
+        <v>217.4</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1668,13 +1710,13 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53">
         <v>229.97</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1682,13 +1724,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>190.08</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1696,13 +1738,19 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>82.43000000000001</v>
       </c>
       <c r="D55">
         <v>243.71</v>
       </c>
+      <c r="E55">
+        <v>161.29</v>
+      </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G55">
         <v>0.46</v>
@@ -1712,6 +1760,12 @@
       </c>
       <c r="I55">
         <v>167.76</v>
+      </c>
+      <c r="J55">
+        <v>191.67</v>
+      </c>
+      <c r="K55">
+        <v>215.23</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1719,13 +1773,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56">
         <v>229.97</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1733,13 +1787,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>190.08</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1747,13 +1801,78 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58">
         <v>158.67</v>
       </c>
       <c r="F58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59">
+        <v>183.8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59">
+        <v>0.44</v>
+      </c>
+      <c r="H59">
+        <v>150.58</v>
+      </c>
+      <c r="I59">
+        <v>124.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60">
+        <v>156.39</v>
+      </c>
+      <c r="F60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
         <v>63</v>
+      </c>
+      <c r="D61">
+        <v>112.88</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>121.17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>0.62</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>137.29</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>133.57</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>129.29</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>96.29000000000001</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>88.43000000000001</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>72.29000000000001</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>61.86</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>49.71</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>60.29</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>53.57</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>67.86</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>74.43000000000001</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>122.43</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>149.14</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>175.29</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>192</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>215</v>
@@ -996,7 +1002,7 @@
         <v>127.67</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>214</v>
@@ -1016,7 +1022,7 @@
         <v>121.89</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>183.14</v>
@@ -1036,7 +1042,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>175.43</v>
@@ -1056,7 +1062,7 @@
         <v>47.64</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>144.29</v>
@@ -1076,7 +1082,7 @@
         <v>25.86</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>122.43</v>
@@ -1096,7 +1102,7 @@
         <v>64.05</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>113.57</v>
@@ -1116,7 +1122,7 @@
         <v>66.44</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1136,7 +1142,7 @@
         <v>50.14</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>155.57</v>
@@ -1156,7 +1162,7 @@
         <v>9.25</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>182.29</v>
@@ -1176,7 +1182,7 @@
         <v>17.04</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>193.14</v>
@@ -1196,7 +1202,7 @@
         <v>99.52</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>221</v>
@@ -1216,7 +1222,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>261.43</v>
@@ -1236,7 +1242,7 @@
         <v>120.91</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>313.86</v>
@@ -1256,7 +1262,7 @@
         <v>155.41</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>363.43</v>
@@ -1276,7 +1282,7 @@
         <v>216.52</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>424</v>
@@ -1296,7 +1302,7 @@
         <v>272.63</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>457.43</v>
@@ -1316,7 +1322,7 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>470.43</v>
@@ -1336,7 +1342,7 @@
         <v>287.48</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1344,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>451.29</v>
@@ -1356,7 +1362,7 @@
         <v>244.02</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>361.43</v>
@@ -1376,7 +1382,7 @@
         <v>135.08</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>276.14</v>
@@ -1396,7 +1402,7 @@
         <v>17.36</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>214.14</v>
@@ -1416,7 +1422,7 @@
         <v>85.34999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>160.86</v>
@@ -1436,7 +1442,7 @@
         <v>163.69</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1444,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>123.43</v>
@@ -1456,7 +1462,7 @@
         <v>146.96</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J43">
         <v>146.96</v>
@@ -1470,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>94.56999999999999</v>
@@ -1482,7 +1488,7 @@
         <v>181.31</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J44">
         <v>164.13</v>
@@ -1496,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>88.14</v>
@@ -1508,7 +1514,7 @@
         <v>179.66</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J45">
         <v>169.31</v>
@@ -1522,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>82.43000000000001</v>
@@ -1534,7 +1540,7 @@
         <v>183.48</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J46">
         <v>172.85</v>
@@ -1548,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>94.56999999999999</v>
@@ -1560,7 +1566,7 @@
         <v>248.93</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G47">
         <v>0.66</v>
@@ -1583,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>88.14</v>
@@ -1595,7 +1601,7 @@
         <v>243.6</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J48">
         <v>197.32</v>
@@ -1609,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>82.43000000000001</v>
@@ -1621,7 +1627,7 @@
         <v>238.73</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J49">
         <v>203.24</v>
@@ -1635,13 +1641,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>85</v>
       </c>
       <c r="D50">
         <v>319.23</v>
       </c>
+      <c r="E50">
+        <v>234.23</v>
+      </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J50">
+        <v>207.11</v>
+      </c>
+      <c r="K50">
+        <v>230.25</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1649,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1661,7 +1679,7 @@
         <v>171.45</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G51">
         <v>0.43</v>
@@ -1673,10 +1691,10 @@
         <v>160.59</v>
       </c>
       <c r="J51">
-        <v>199.26</v>
+        <v>203.15</v>
       </c>
       <c r="K51">
-        <v>220.11</v>
+        <v>226.28</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1684,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1696,13 +1714,13 @@
         <v>161.29</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J52">
-        <v>195.04</v>
+        <v>198.96</v>
       </c>
       <c r="K52">
-        <v>217.4</v>
+        <v>223.21</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1710,13 +1728,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
       </c>
       <c r="D53">
         <v>229.97</v>
       </c>
+      <c r="E53">
+        <v>144.97</v>
+      </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J53">
+        <v>194.05</v>
+      </c>
+      <c r="K53">
+        <v>218.43</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1724,13 +1754,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <v>190.08</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1738,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>82.43000000000001</v>
@@ -1750,7 +1780,7 @@
         <v>161.29</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G55">
         <v>0.46</v>
@@ -1762,10 +1792,10 @@
         <v>167.76</v>
       </c>
       <c r="J55">
-        <v>191.67</v>
+        <v>191.32</v>
       </c>
       <c r="K55">
-        <v>215.23</v>
+        <v>216.53</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1773,13 +1803,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>85</v>
       </c>
       <c r="D56">
         <v>229.97</v>
       </c>
+      <c r="E56">
+        <v>144.97</v>
+      </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J56">
+        <v>187.76</v>
+      </c>
+      <c r="K56">
+        <v>212.99</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1787,13 +1829,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>190.08</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1801,13 +1843,13 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>158.67</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1815,13 +1857,19 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>85</v>
       </c>
       <c r="D59">
         <v>183.8</v>
       </c>
+      <c r="E59">
+        <v>98.8</v>
+      </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G59">
         <v>0.44</v>
@@ -1831,6 +1879,12 @@
       </c>
       <c r="I59">
         <v>124.12</v>
+      </c>
+      <c r="J59">
+        <v>181.4</v>
+      </c>
+      <c r="K59">
+        <v>206.08</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1838,13 +1892,13 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60">
         <v>156.39</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1852,13 +1906,13 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61">
         <v>112.88</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1866,13 +1920,78 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62">
         <v>121.17</v>
       </c>
       <c r="F62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>173.44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63">
+        <v>1.53</v>
+      </c>
+      <c r="H63">
+        <v>343.28</v>
+      </c>
+      <c r="I63">
+        <v>291.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>158.53</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
         <v>65</v>
+      </c>
+      <c r="D65">
+        <v>150.47</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <v>159.89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="73">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,12 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -217,7 +223,16 @@
     <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
+    <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
     <t>KNN</t>
+  </si>
+  <si>
+    <t>GBM</t>
   </si>
 </sst>
 </file>
@@ -575,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -633,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>0.62</v>
@@ -650,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>137.29</v>
@@ -662,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>133.57</v>
@@ -682,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>129.29</v>
@@ -702,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>96.29000000000001</v>
@@ -722,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>88.43000000000001</v>
@@ -742,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>72.29000000000001</v>
@@ -762,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>61.86</v>
@@ -782,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>49.71</v>
@@ -802,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>60.29</v>
@@ -822,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>53.57</v>
@@ -842,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>67.86</v>
@@ -862,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>74.43000000000001</v>
@@ -882,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -902,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>122.43</v>
@@ -922,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>149.14</v>
@@ -942,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>175.29</v>
@@ -962,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>192</v>
@@ -982,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>215</v>
@@ -1002,7 +1017,7 @@
         <v>127.67</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>214</v>
@@ -1022,7 +1037,7 @@
         <v>121.89</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>183.14</v>
@@ -1042,7 +1057,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>175.43</v>
@@ -1062,7 +1077,7 @@
         <v>47.64</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>144.29</v>
@@ -1082,7 +1097,7 @@
         <v>25.86</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>122.43</v>
@@ -1102,7 +1117,7 @@
         <v>64.05</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>113.57</v>
@@ -1122,7 +1137,7 @@
         <v>66.44</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1142,7 +1157,7 @@
         <v>50.14</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>155.57</v>
@@ -1162,7 +1177,7 @@
         <v>9.25</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>182.29</v>
@@ -1182,7 +1197,7 @@
         <v>17.04</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>193.14</v>
@@ -1202,7 +1217,7 @@
         <v>99.52</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>221</v>
@@ -1222,7 +1237,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>261.43</v>
@@ -1242,7 +1257,7 @@
         <v>120.91</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>313.86</v>
@@ -1262,7 +1277,7 @@
         <v>155.41</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>363.43</v>
@@ -1282,7 +1297,7 @@
         <v>216.52</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>424</v>
@@ -1302,7 +1317,7 @@
         <v>272.63</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>457.43</v>
@@ -1322,7 +1337,7 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>470.43</v>
@@ -1342,7 +1357,7 @@
         <v>287.48</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>451.29</v>
@@ -1362,7 +1377,7 @@
         <v>244.02</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1370,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>361.43</v>
@@ -1382,7 +1397,7 @@
         <v>135.08</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>276.14</v>
@@ -1402,7 +1417,7 @@
         <v>17.36</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>214.14</v>
@@ -1422,7 +1437,7 @@
         <v>85.34999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1430,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>160.86</v>
@@ -1442,7 +1457,7 @@
         <v>163.69</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1450,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>123.43</v>
@@ -1462,7 +1477,7 @@
         <v>146.96</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J43">
         <v>146.96</v>
@@ -1476,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>94.56999999999999</v>
@@ -1488,7 +1503,7 @@
         <v>181.31</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J44">
         <v>164.13</v>
@@ -1502,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>88.14</v>
@@ -1514,7 +1529,7 @@
         <v>179.66</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J45">
         <v>169.31</v>
@@ -1528,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>82.43000000000001</v>
@@ -1540,7 +1555,7 @@
         <v>183.48</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J46">
         <v>172.85</v>
@@ -1554,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>94.56999999999999</v>
@@ -1566,7 +1581,7 @@
         <v>248.93</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G47">
         <v>0.66</v>
@@ -1589,7 +1604,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>88.14</v>
@@ -1601,7 +1616,7 @@
         <v>243.6</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J48">
         <v>197.32</v>
@@ -1615,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>82.43000000000001</v>
@@ -1627,7 +1642,7 @@
         <v>238.73</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J49">
         <v>203.24</v>
@@ -1641,7 +1656,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>85</v>
@@ -1653,7 +1668,7 @@
         <v>234.23</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J50">
         <v>207.11</v>
@@ -1667,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1679,7 +1694,7 @@
         <v>171.45</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G51">
         <v>0.43</v>
@@ -1702,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1714,7 +1729,7 @@
         <v>161.29</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J52">
         <v>198.96</v>
@@ -1728,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1740,7 +1755,7 @@
         <v>144.97</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J53">
         <v>194.05</v>
@@ -1754,13 +1769,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>74.70999999999999</v>
       </c>
       <c r="D54">
         <v>190.08</v>
       </c>
+      <c r="E54">
+        <v>115.37</v>
+      </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="J54">
+        <v>187.5</v>
+      </c>
+      <c r="K54">
+        <v>213.09</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1768,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>82.43000000000001</v>
@@ -1780,7 +1807,7 @@
         <v>161.29</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G55">
         <v>0.46</v>
@@ -1792,10 +1819,10 @@
         <v>167.76</v>
       </c>
       <c r="J55">
-        <v>191.32</v>
+        <v>185.48</v>
       </c>
       <c r="K55">
-        <v>216.53</v>
+        <v>211.75</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1803,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>85</v>
@@ -1815,13 +1842,13 @@
         <v>144.97</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J56">
-        <v>187.76</v>
+        <v>182.59</v>
       </c>
       <c r="K56">
-        <v>212.99</v>
+        <v>208.81</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1829,13 +1856,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>74.70999999999999</v>
       </c>
       <c r="D57">
         <v>190.08</v>
       </c>
+      <c r="E57">
+        <v>115.37</v>
+      </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="J57">
+        <v>178.11</v>
+      </c>
+      <c r="K57">
+        <v>205.18</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1843,13 +1882,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C58">
+        <v>67.29000000000001</v>
       </c>
       <c r="D58">
         <v>158.67</v>
       </c>
+      <c r="E58">
+        <v>91.38</v>
+      </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="J58">
+        <v>172.69</v>
+      </c>
+      <c r="K58">
+        <v>200.85</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1857,7 +1908,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>85</v>
@@ -1869,7 +1920,7 @@
         <v>98.8</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G59">
         <v>0.44</v>
@@ -1881,10 +1932,10 @@
         <v>124.12</v>
       </c>
       <c r="J59">
-        <v>181.4</v>
+        <v>168.34</v>
       </c>
       <c r="K59">
-        <v>206.08</v>
+        <v>195.87</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1892,13 +1943,25 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>74.70999999999999</v>
       </c>
       <c r="D60">
         <v>156.39</v>
       </c>
+      <c r="E60">
+        <v>81.67</v>
+      </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="J60">
+        <v>163.52</v>
+      </c>
+      <c r="K60">
+        <v>191.06</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1906,13 +1969,25 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>67.29000000000001</v>
       </c>
       <c r="D61">
         <v>112.88</v>
       </c>
+      <c r="E61">
+        <v>45.59</v>
+      </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="J61">
+        <v>157.32</v>
+      </c>
+      <c r="K61">
+        <v>184.57</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1920,13 +1995,13 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D62">
         <v>121.17</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1934,13 +2009,19 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>74.70999999999999</v>
       </c>
       <c r="D63">
         <v>173.44</v>
       </c>
+      <c r="E63">
+        <v>98.73</v>
+      </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G63">
         <v>1.53</v>
@@ -1950,6 +2031,12 @@
       </c>
       <c r="I63">
         <v>291.78</v>
+      </c>
+      <c r="J63">
+        <v>154.39</v>
+      </c>
+      <c r="K63">
+        <v>181.95</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1957,41 +2044,195 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>67.29000000000001</v>
       </c>
       <c r="D64">
         <v>158.53</v>
       </c>
+      <c r="E64">
+        <v>91.25</v>
+      </c>
       <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="J64">
+        <v>151.38</v>
+      </c>
+      <c r="K64">
+        <v>179.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D65">
         <v>150.47</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D66">
         <v>159.89</v>
       </c>
       <c r="F66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="F67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67">
+        <v>0.53</v>
+      </c>
+      <c r="H67">
+        <v>98.66</v>
+      </c>
+      <c r="I67">
+        <v>73.70999999999999</v>
+      </c>
+      <c r="J67">
+        <v>147.51</v>
+      </c>
+      <c r="K67">
+        <v>176.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71">
+        <v>106.73</v>
+      </c>
+      <c r="F71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71">
+        <v>0.04</v>
+      </c>
+      <c r="H71">
+        <v>5.4</v>
+      </c>
+      <c r="I71">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <v>106.72</v>
+      </c>
+      <c r="F72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73">
+        <v>153.89</v>
+      </c>
+      <c r="F73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74">
+        <v>129.8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="75">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>15 Mar -- 21 Mar 2020</t>
   </si>
   <si>
@@ -227,6 +230,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>135</v>
@@ -648,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>0.62</v>
@@ -665,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>137.29</v>
@@ -677,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -685,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>133.57</v>
@@ -697,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>129.29</v>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -725,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>96.29000000000001</v>
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -745,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>88.43000000000001</v>
@@ -757,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -765,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>72.29000000000001</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -785,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>61.86</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -805,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>49.71</v>
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -825,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>60.29</v>
@@ -837,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -845,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>53.57</v>
@@ -857,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>67.86</v>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>74.43000000000001</v>
@@ -897,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -917,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -925,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>122.43</v>
@@ -937,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -945,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>149.14</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -965,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>175.29</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -985,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>192</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1005,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>215</v>
@@ -1017,7 +1023,7 @@
         <v>127.67</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>214</v>
@@ -1037,7 +1043,7 @@
         <v>121.89</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1045,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>183.14</v>
@@ -1057,7 +1063,7 @@
         <v>73.65000000000001</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1065,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>175.43</v>
@@ -1077,7 +1083,7 @@
         <v>47.64</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1085,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>144.29</v>
@@ -1097,7 +1103,7 @@
         <v>25.86</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1105,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>122.43</v>
@@ -1117,7 +1123,7 @@
         <v>64.05</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1125,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>113.57</v>
@@ -1137,7 +1143,7 @@
         <v>66.44</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1145,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>125</v>
@@ -1157,7 +1163,7 @@
         <v>50.14</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1165,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>155.57</v>
@@ -1177,7 +1183,7 @@
         <v>9.25</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1185,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>182.29</v>
@@ -1197,7 +1203,7 @@
         <v>17.04</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1205,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>193.14</v>
@@ -1217,7 +1223,7 @@
         <v>99.52</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1225,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>221</v>
@@ -1237,7 +1243,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1245,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>261.43</v>
@@ -1257,7 +1263,7 @@
         <v>120.91</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1265,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>313.86</v>
@@ -1277,7 +1283,7 @@
         <v>155.41</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1285,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>363.43</v>
@@ -1297,7 +1303,7 @@
         <v>216.52</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1305,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>424</v>
@@ -1317,7 +1323,7 @@
         <v>272.63</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1325,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>457.43</v>
@@ -1337,7 +1343,7 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1345,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>470.43</v>
@@ -1357,7 +1363,7 @@
         <v>287.48</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1365,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>451.29</v>
@@ -1377,7 +1383,7 @@
         <v>244.02</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1385,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>361.43</v>
@@ -1397,7 +1403,7 @@
         <v>135.08</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1405,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>276.14</v>
@@ -1417,7 +1423,7 @@
         <v>17.36</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1425,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>214.14</v>
@@ -1437,7 +1443,7 @@
         <v>85.34999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1445,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>160.86</v>
@@ -1457,7 +1463,7 @@
         <v>163.69</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1465,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>123.43</v>
@@ -1477,7 +1483,7 @@
         <v>146.96</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J43">
         <v>146.96</v>
@@ -1491,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>94.56999999999999</v>
@@ -1503,7 +1509,7 @@
         <v>181.31</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J44">
         <v>164.13</v>
@@ -1517,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>88.14</v>
@@ -1529,7 +1535,7 @@
         <v>179.66</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J45">
         <v>169.31</v>
@@ -1543,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>82.43000000000001</v>
@@ -1555,7 +1561,7 @@
         <v>183.48</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J46">
         <v>172.85</v>
@@ -1569,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>94.56999999999999</v>
@@ -1581,7 +1587,7 @@
         <v>248.93</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G47">
         <v>0.66</v>
@@ -1604,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>88.14</v>
@@ -1616,7 +1622,7 @@
         <v>243.6</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J48">
         <v>197.32</v>
@@ -1630,7 +1636,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>82.43000000000001</v>
@@ -1642,7 +1648,7 @@
         <v>238.73</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J49">
         <v>203.24</v>
@@ -1656,7 +1662,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>85</v>
@@ -1668,7 +1674,7 @@
         <v>234.23</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J50">
         <v>207.11</v>
@@ -1682,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1694,7 +1700,7 @@
         <v>171.45</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G51">
         <v>0.43</v>
@@ -1717,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1729,7 +1735,7 @@
         <v>161.29</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J52">
         <v>198.96</v>
@@ -1743,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1755,7 +1761,7 @@
         <v>144.97</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J53">
         <v>194.05</v>
@@ -1769,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54">
         <v>74.70999999999999</v>
@@ -1781,7 +1787,7 @@
         <v>115.37</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J54">
         <v>187.5</v>
@@ -1795,7 +1801,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>82.43000000000001</v>
@@ -1807,7 +1813,7 @@
         <v>161.29</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G55">
         <v>0.46</v>
@@ -1830,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>85</v>
@@ -1842,7 +1848,7 @@
         <v>144.97</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J56">
         <v>182.59</v>
@@ -1856,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>74.70999999999999</v>
@@ -1868,7 +1874,7 @@
         <v>115.37</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J57">
         <v>178.11</v>
@@ -1882,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>67.29000000000001</v>
@@ -1894,7 +1900,7 @@
         <v>91.38</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J58">
         <v>172.69</v>
@@ -1908,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <v>85</v>
@@ -1920,7 +1926,7 @@
         <v>98.8</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G59">
         <v>0.44</v>
@@ -1943,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>74.70999999999999</v>
@@ -1955,7 +1961,7 @@
         <v>81.67</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J60">
         <v>163.52</v>
@@ -1969,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <v>67.29000000000001</v>
@@ -1981,7 +1987,7 @@
         <v>45.59</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J61">
         <v>157.32</v>
@@ -1995,13 +2001,25 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>75.14</v>
       </c>
       <c r="D62">
         <v>121.17</v>
       </c>
+      <c r="E62">
+        <v>46.03</v>
+      </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="J62">
+        <v>151.75</v>
+      </c>
+      <c r="K62">
+        <v>178.41</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2009,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>74.70999999999999</v>
@@ -2021,7 +2039,7 @@
         <v>98.73</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G63">
         <v>1.53</v>
@@ -2033,10 +2051,10 @@
         <v>291.78</v>
       </c>
       <c r="J63">
-        <v>154.39</v>
+        <v>149.23</v>
       </c>
       <c r="K63">
-        <v>181.95</v>
+        <v>176.2</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2044,7 +2062,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>67.29000000000001</v>
@@ -2056,13 +2074,13 @@
         <v>91.25</v>
       </c>
       <c r="F64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J64">
-        <v>151.38</v>
+        <v>146.59</v>
       </c>
       <c r="K64">
-        <v>179.74</v>
+        <v>174.36</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2070,13 +2088,25 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>75.14</v>
       </c>
       <c r="D65">
         <v>150.47</v>
       </c>
+      <c r="E65">
+        <v>75.31999999999999</v>
+      </c>
       <c r="F65" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="J65">
+        <v>143.49</v>
+      </c>
+      <c r="K65">
+        <v>171.13</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2084,13 +2114,13 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66">
         <v>159.89</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2098,7 +2128,7 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>67.29000000000001</v>
@@ -2110,7 +2140,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G67">
         <v>0.53</v>
@@ -2122,10 +2152,10 @@
         <v>73.70999999999999</v>
       </c>
       <c r="J67">
-        <v>147.51</v>
+        <v>140.28</v>
       </c>
       <c r="K67">
-        <v>176.05</v>
+        <v>168.11</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2133,13 +2163,25 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>75.14</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
+      <c r="E68">
+        <v>74.14</v>
+      </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="J68">
+        <v>137.63</v>
+      </c>
+      <c r="K68">
+        <v>165.33</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2147,13 +2189,13 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2161,13 +2203,13 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2175,13 +2217,19 @@
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>75.14</v>
       </c>
       <c r="D71">
         <v>106.73</v>
       </c>
+      <c r="E71">
+        <v>31.58</v>
+      </c>
       <c r="F71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G71">
         <v>0.04</v>
@@ -2191,6 +2239,12 @@
       </c>
       <c r="I71">
         <v>3.63</v>
+      </c>
+      <c r="J71">
+        <v>133.55</v>
+      </c>
+      <c r="K71">
+        <v>160.59</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2198,13 +2252,13 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D72">
         <v>106.72</v>
       </c>
       <c r="F72" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2212,13 +2266,13 @@
         <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D73">
         <v>153.89</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2226,13 +2280,78 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D74">
         <v>129.8</v>
       </c>
       <c r="F74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75">
+        <v>1.54</v>
+      </c>
+      <c r="H75">
+        <v>98.67</v>
+      </c>
+      <c r="I75">
+        <v>74.14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
         <v>71</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
